--- a/dwmex2015/results_files/results_4_of_4.xlsx
+++ b/dwmex2015/results_files/results_4_of_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K107"/>
+  <dimension ref="A1:K108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,44 +493,44 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Toluca</t>
+          <t>Queretaro</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Toluca</t>
+          <t>Queretaro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sasha</t>
+          <t>Jennifer swang</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Edad: 23 años -- Cabello: Castaño Oscuro -- Ojos: Miel -- Estatura: 1.58 m -- Medidas: 88-60-90 cm -- Peso: 50 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: N / A -- Idiomas:</t>
+          <t>Edad: 24 años -- Cabello: Castaño Oscuro -- Ojos: Cafe Oscuro -- Estatura: 1.60 m -- Medidas: 90 - 63 - 94 cm -- Peso: 54 kg -- Busto: grande -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Venezuela -- Idiomas:</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(55) 6071-5135</t>
+          <t>(55) 5471-7945</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>52 (55) 6071-5135</t>
+          <t>52 (55) 5471-7945</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525560715135&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525554717945&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5Mjk=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDIzMDk=</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -542,44 +542,44 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Toluca</t>
+          <t>Queretaro</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Toluca</t>
+          <t>Queretaro</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Lucy</t>
+          <t>Andrea portman</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Edad: 33 años -- Cabello: Castaño Oscuro -- Ojos: Verdes -- Estatura: 1.74 m -- Medidas: 90 - 64 - 90 cm -- Peso: 61 kg -- Busto: grande -- Cuerpo: Atletica -- Etnicidad: Europea -- Nacionalidad: Argentina -- Idiomas:</t>
+          <t>Edad: 24 años -- Cabello: Rubio -- Ojos: Cafe Oscuro -- Estatura: 1.65 m -- Medidas: 100 - 61 - 98 cm -- Peso: 51 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Venezuela -- Idiomas:</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(55) 8445-1016</t>
+          <t>(55) 8085-5638</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>52 (55) 8445-1016</t>
+          <t>52 (55) 8085-5638</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525584451016&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525580855638&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4Njk=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4MTE=</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -591,44 +591,44 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cuernavaca</t>
+          <t>Tulum</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cuernavaca</t>
+          <t>Tulum</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Lucy</t>
+          <t>Flavia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Edad: 33 años -- Cabello: Castaño Oscuro -- Ojos: Verdes -- Estatura: 1.74 m -- Medidas: 90 - 64 - 90 cm -- Peso: 61 kg -- Busto: grande -- Cuerpo: Atletica -- Etnicidad: Latina / Hispana -- Nacionalidad: Argentina -- Idiomas:</t>
+          <t>Edad: 27 años -- Cabello: Castaño Oscuro -- Ojos: Verdes -- Estatura: 1.65 m -- Medidas: 92 - 63 - 95 cm -- Peso: 55 kg -- Busto: grande -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Paraguay -- Idiomas:</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(55) 8445-1016</t>
+          <t>(55) 3195-1747</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>52 (55) 8445-1016</t>
+          <t>52 (55) 3195-1747</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525584451016&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525531951747&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4Njg=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5MjU=</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -689,44 +689,44 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Los Cabos</t>
+          <t>Queretaro</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Los Cabos</t>
+          <t>Queretaro</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Kathya.</t>
+          <t>Amapola</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Edad: 35 años -- Cabello: Rubio -- Ojos: Verdes -- Estatura: 1.67 m -- Medidas: 86 - 66 - 90 cm -- Peso: 57 kg -- Busto: grande -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Uruguay -- Idiomas:</t>
+          <t>Edad: 27 años -- Cabello: Castaño Oscuro -- Ojos: Azul -- Estatura: 1.60 m -- Medidas: 93 - 65 - 90 cm -- Peso: 65 kg -- Busto: natural -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Mexico -- Idiomas:</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(998) 3964-850</t>
+          <t>(442) 2821-3968</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>52 (998) 3964-850</t>
+          <t>52 (442) 2821-3968</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=529983964850&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=5244228213968&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4NjQ=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM3MDY=</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -738,44 +738,44 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Queretaro</t>
+          <t>Playa del Carmen</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Queretaro</t>
+          <t>Playa del Carmen</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Amapola</t>
+          <t>Merry</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Edad: 27 años -- Cabello: Castaño Oscuro -- Ojos: Azul -- Estatura: 1.60 m -- Medidas: 93 - 65 - 90 cm -- Peso: 65 kg -- Busto: natural -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Mexico -- Idiomas:</t>
+          <t>Edad: 27 años -- Cabello: Negro -- Ojos: Negros -- Estatura: 1.60 m -- Medidas: 100 - 60 - 100 cm -- Peso: 58 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Venezuela -- Idiomas:</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(442) 2821-3968</t>
+          <t>(984) 1910-894</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>52 (442) 2821-3968</t>
+          <t>52 (984) 1910-894</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=5244228213968&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=529841910894&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM3MDY=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDcxNA==</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -787,44 +787,44 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Queretaro</t>
+          <t>Playa del Carmen</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Queretaro</t>
+          <t>Playa del Carmen</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Andrea portman</t>
+          <t>Flavia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Edad: 24 años -- Cabello: Rubio -- Ojos: Cafe Oscuro -- Estatura: 1.65 m -- Medidas: 100 - 61 - 98 cm -- Peso: 51 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Venezuela -- Idiomas:</t>
+          <t>Edad: 27 años -- Cabello: Castaño Claro -- Ojos: Verdes -- Estatura: 1.65 m -- Medidas: 92 - 63 - 95 cm -- Peso: 55 kg -- Busto: grande -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Paraguay -- Idiomas:</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>(55) 8085-5638</t>
+          <t>(55) 3195-1747</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>52 (55) 8085-5638</t>
+          <t>52 (55) 3195-1747</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525580855638&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525531951747&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4MTE=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5MjQ=</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -836,44 +836,44 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Puebla</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Puebla</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Julieta</t>
+          <t>Maria sofia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Edad: 26 años -- Cabello: Rubio -- Ojos: Cafe Claro -- Estatura: 1.63 m -- Medidas: 93 - 60 - 92 cm -- Peso: 42 kg -- Busto: grande -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
+          <t>Edad: 22 años -- Cabello: Castaño Claro -- Ojos: Verdes -- Estatura: 1.60 m -- Medidas: 95 - 60 - 90 cm -- Peso: 50 kg -- Busto: grande -- Cuerpo: Delgada -- Etnicidad: Europea -- Nacionalidad: Argentina -- Idiomas:</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(55) 7146-7493</t>
+          <t>(672) 1394-446</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>52 (55) 7146-7493</t>
+          <t>52 (672) 1394-346</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525571467493&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=526721394346&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4NTE=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM1NDQ=</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -885,44 +885,44 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Queretaro</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Queretaro</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jennifer swang</t>
+          <t>Catalina hernandez</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Edad: 24 años -- Cabello: Castaño Oscuro -- Ojos: Cafe Oscuro -- Estatura: 1.60 m -- Medidas: 90 - 63 - 94 cm -- Peso: 54 kg -- Busto: grande -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Venezuela -- Idiomas:</t>
+          <t>Edad: 21 años -- Cabello: Negro -- Ojos: Cafe Oscuro -- Estatura: 1.56 m -- Medidas: 90 - 60 - 90 cm -- Peso: 50 kg -- Busto: grande -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>(55) 5471-7945</t>
+          <t>(55) 4896-5149</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>52 (55) 5471-7945</t>
+          <t>52 (55) 4896-5149</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525554717945&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525548965149&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDIzMDk=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDE2MTc=</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -934,44 +934,44 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Puebla</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Puebla</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Maria angel gomez </t>
+          <t>Sara</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Edad: 21 años -- Cabello: Castaño Oscuro -- Ojos: Cafe Claro -- Estatura: 1.58 m -- Medidas: 85 - 60 - 90 cm -- Peso: 55 kg -- Busto: natural -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: N / A -- Idiomas:</t>
+          <t>Edad: 21 años -- Cabello: Castaño Oscuro -- Ojos: Cafe Oscuro -- Estatura: 1.63 m -- Medidas: 87 - 60 - 100 cm -- Peso: 65 kg -- Busto: natural -- Cuerpo: Atletica -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>(55) 7410-2693</t>
+          <t>(33) 3351-5633</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>52 (55) 7410-2693</t>
+          <t>52 (33) 3351-5633</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525574102693&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=523333515633&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM2ODg=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5MDY=</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -983,44 +983,44 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Tulum</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Tulum</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Flavia</t>
+          <t>Grace</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Edad: 27 años -- Cabello: Castaño Oscuro -- Ojos: Verdes -- Estatura: 1.65 m -- Medidas: 92 - 63 - 95 cm -- Peso: 55 kg -- Busto: grande -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Paraguay -- Idiomas:</t>
+          <t>Edad: 21 años -- Cabello: Negro -- Ojos: Cafe Oscuro -- Estatura: 1.56 m -- Medidas: 90 - 60 - 90 cm -- Peso: 50 kg -- Busto: grande -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>(55) 3195-1747</t>
+          <t>(55) 4896-5149</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>52 (55) 3195-1747</t>
+          <t>52 (55) 4896-5149</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525531951747&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525548965149&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5MjU=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM3MzI=</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1032,44 +1032,44 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Cancun</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cancun</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Flavia</t>
+          <t>Sasha</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Edad: 27 años -- Cabello: Castaño Claro -- Ojos: Verdes -- Estatura: 1.65 m -- Medidas: 92 - 63 - 95 cm -- Peso: 55 kg -- Busto: grande -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Paraguay -- Idiomas:</t>
+          <t>Edad: 23 años -- Cabello: Castaño Oscuro -- Ojos: Miel -- Estatura: 1.58 m -- Medidas: 88-60-90 cm -- Peso: 50 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: N / A -- Idiomas:</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>(55) 3195-1747</t>
+          <t>(55) 6071-5135</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>52 (55) 3195-1747</t>
+          <t>52 (55) 6071-5135</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525531951747&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525560715135&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4ODM=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5Mjk=</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1081,44 +1081,44 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Cancun</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Cancun</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Victoria</t>
+          <t>Lucy</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Edad: 27 años -- Cabello: Rubio -- Ojos: Cafe Oscuro -- Estatura: 1.63 m -- Medidas: 95 - 60 - 92 cm -- Peso: 50 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Argentina -- Idiomas:</t>
+          <t>Edad: 33 años -- Cabello: Castaño Oscuro -- Ojos: Verdes -- Estatura: 1.74 m -- Medidas: 90 - 64 - 90 cm -- Peso: 61 kg -- Busto: grande -- Cuerpo: Atletica -- Etnicidad: Europea -- Nacionalidad: Argentina -- Idiomas:</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>(56) 2044-7852</t>
+          <t>(55) 8445-1016</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>52 (56) 2044-7852</t>
+          <t>52 (55) 8445-1016</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525620447852&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525584451016&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4ODg=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4Njk=</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1130,44 +1130,44 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Cancun</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Cancun</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Amanda vieira</t>
+          <t>Keila</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Edad: 24 años -- Cabello: Rubio -- Ojos: Cafe Oscuro -- Estatura: 1.73 m -- Medidas: 90-60-90 cm -- Peso: 66 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
+          <t>Edad: 24 años -- Cabello: Negro -- Ojos: Cafe Oscuro -- Estatura: 1.68 m -- Medidas: 105 - 65 - 130 cm -- Peso: 58 kg -- Busto: grande -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>(609) 4697-60</t>
+          <t>(33) 1243-5188</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>33 (609) 4697-60</t>
+          <t>52 (33) 1243-5188</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=33609469760&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=523312435188&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5MjE=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDI0NTQ=</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1179,44 +1179,44 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Guadalajara</t>
+          <t>Cancun</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Guadalajara</t>
+          <t>Cancun</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Keila</t>
+          <t>Any</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Edad: 24 años -- Cabello: Negro -- Ojos: Cafe Oscuro -- Estatura: 1.68 m -- Medidas: 105 - 65 - 130 cm -- Peso: 58 kg -- Busto: grande -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
+          <t>Edad: 23 años -- Cabello: Rubio -- Ojos: Verdes -- Estatura: 1.60 m -- Medidas: 90 - 65 - 92 cm -- Peso: 52 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>(33) 1243-5188</t>
+          <t>(55) 4967-0369</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>52 (33) 1243-5188</t>
+          <t>52 (55) 4967-0369</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=523312435188&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525549670369&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDI0NTQ=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5MDQ=</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1228,44 +1228,44 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Guadalajara</t>
+          <t>Cd. México</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Guadalajara</t>
+          <t>Cd. México</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Catalina hernandez</t>
+          <t>Lauren rivera</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Edad: 21 años -- Cabello: Negro -- Ojos: Cafe Oscuro -- Estatura: 1.56 m -- Medidas: 90 - 60 - 90 cm -- Peso: 50 kg -- Busto: grande -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
+          <t>Edad: 21 años -- Cabello: Negro -- Ojos: Cafe Oscuro -- Estatura: 1.60 m -- Medidas: 75 - 60 - 90 cm -- Peso: 56 kg -- Busto: natural -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>(55) 4896-5149</t>
+          <t>(55) 7398-9179</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>52 (55) 4896-5149</t>
+          <t>52 (55) 7398-9179</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525548965149&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525573989179&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDE2MTc=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4OTQ=</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1277,44 +1277,44 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Guadalajara</t>
+          <t>Cd. México</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Guadalajara</t>
+          <t>Cd. México</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Grace</t>
+          <t>Sofia</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Edad: 21 años -- Cabello: Negro -- Ojos: Cafe Oscuro -- Estatura: 1.56 m -- Medidas: 90 - 60 - 90 cm -- Peso: 50 kg -- Busto: grande -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
+          <t>Edad: 25 años -- Cabello: Negro -- Ojos: Cafe Oscuro -- Estatura: 1.60 m -- Medidas: 88 - 63 - 95 cm -- Peso: 55 kg -- Busto: natural -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>(55) 4896-5149</t>
+          <t>(55) 4222-2373</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>52 (55) 4896-5149</t>
+          <t>52 (55) 4222-2373</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525548965149&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525542222373&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM3MzI=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4ODc=</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1326,44 +1326,44 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Guadalajara</t>
+          <t>Cd. México</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Guadalajara</t>
+          <t>Cd. México</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Maria sofia</t>
+          <t>Pamela...</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Edad: 22 años -- Cabello: Castaño Claro -- Ojos: Verdes -- Estatura: 1.60 m -- Medidas: 95 - 60 - 90 cm -- Peso: 50 kg -- Busto: grande -- Cuerpo: Delgada -- Etnicidad: Europea -- Nacionalidad: Argentina -- Idiomas:</t>
+          <t>Edad: 23 años -- Cabello: Rubio -- Ojos: Cafe Oscuro -- Estatura: 1.61 m -- Medidas: 93 - 63 - 95 cm -- Peso: 52 kg -- Busto: muy grande -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>(672) 1394-446</t>
+          <t>(55) 5181-3687</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>52 (672) 1394-346</t>
+          <t>52 (55) 5181-3687</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=526721394346&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525551813687&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM1NDQ=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDIxMjM=</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1375,44 +1375,44 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Guadalajara</t>
+          <t>Cd. México</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Guadalajara</t>
+          <t>Cd. México</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Sara</t>
+          <t>Iza aguiar</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Edad: 21 años -- Cabello: Castaño Oscuro -- Ojos: Cafe Oscuro -- Estatura: 1.63 m -- Medidas: 87 - 60 - 100 cm -- Peso: 65 kg -- Busto: natural -- Cuerpo: Atletica -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
+          <t>Edad: 26 años -- Cabello: Rubio -- Ojos: Verdes -- Estatura: 1.64 m -- Medidas: 92 - 66 - 102 cm -- Peso: 58 kg -- Busto: grande -- Cuerpo: Atletica -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>(33) 3351-5633</t>
+          <t>(55) 4536-3227</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>52 (33) 3351-5633</t>
+          <t>52 (55) 4536-3227</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=523333515633&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525545363227&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5MDY=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5MzM=</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1424,44 +1424,44 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Cancun</t>
+          <t>Cd. México</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Cancun</t>
+          <t>Cd. México</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Camila rios</t>
+          <t>Jess bittencourt</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Edad: 27 años -- Cabello: Rubio -- Ojos: Cafe Oscuro -- Estatura: 1.60 m -- Medidas: 90 - 60 - 90 cm -- Peso: 60 kg -- Busto: grande -- Cuerpo: Atletica -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
+          <t>Edad: 23 años -- Cabello: Rubio -- Ojos: Cafe Oscuro -- Estatura: 1.62 m -- Medidas: 90 - 62 - 102 cm -- Peso: 55 kg -- Busto: grande -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>(998) 1491-658</t>
+          <t>(55) 2150-2712</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>52 (998) 1491-658</t>
+          <t>52 (55) 2150-2712</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=529981491658&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525521502712&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4NDk=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4OTc=</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1473,44 +1473,44 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Cancun</t>
+          <t>Cd. México</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Cancun</t>
+          <t>Cd. México</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Any</t>
+          <t>Kamila braum</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Edad: 23 años -- Cabello: Rubio -- Ojos: Verdes -- Estatura: 1.60 m -- Medidas: 90 - 65 - 92 cm -- Peso: 52 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
+          <t>Edad: 28 años -- Cabello: Negro -- Ojos: Negros -- Estatura: 1.72 m -- Medidas: 96 - 64 - 120 cm -- Peso: 65 kg -- Busto: natural -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>(55) 4967-0369</t>
+          <t>(55) 2753-7310</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>52 (55) 4967-0369</t>
+          <t>52 (55) 2753-7310</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525549670369&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525527537310&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5MDQ=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM1ODk=</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1522,44 +1522,44 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Cancun</t>
+          <t>Cd. México</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Cancun</t>
+          <t>Cd. México</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Samantha</t>
+          <t>Mila</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Edad: 25 años -- Cabello: Negro -- Ojos: Miel -- Estatura: 1.67 m -- Medidas: 90 - 62 - 88 cm -- Peso: 57 kg -- Busto: grande -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
+          <t>Edad: 28 años -- Cabello: Rubio -- Ojos: Cafe Claro -- Estatura: 1.68 m -- Medidas: 84 -62 - 90 cm -- Peso: 54 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>(998) 3411-568</t>
+          <t>(55) 7324-5665</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>52 (998) 3411-568</t>
+          <t>52 (55) 7324-5665</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=529983411568&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525573245665&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5MzE=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4MzY=</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1571,44 +1571,44 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Playa del Carmen</t>
+          <t>Cd. México</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Playa del Carmen</t>
+          <t>Cd. México</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Flavia</t>
+          <t>Alisson garcia</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Edad: 27 años -- Cabello: Castaño Claro -- Ojos: Verdes -- Estatura: 1.65 m -- Medidas: 92 - 63 - 95 cm -- Peso: 55 kg -- Busto: grande -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Paraguay -- Idiomas:</t>
+          <t>Edad: 21 años -- Cabello: Castaño Oscuro -- Ojos: Cafe Oscuro -- Estatura: 1.65 m -- Medidas: 95 - 65 - 110 cm -- Peso: 58 kg -- Busto: grande -- Cuerpo: Atletica -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>(55) 3195-1747</t>
+          <t>(55) 2385-1034</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>52 (55) 3195-1747</t>
+          <t>52 (55) 2385-1034</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525531951747&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525523851034&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5MjQ=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5Mjg=</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1620,44 +1620,44 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Playa del Carmen</t>
+          <t>Cd. México</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Playa del Carmen</t>
+          <t>Cd. México</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Merry</t>
+          <t>Dani brasileña</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Edad: 27 años -- Cabello: Negro -- Ojos: Negros -- Estatura: 1.60 m -- Medidas: 100 - 60 - 100 cm -- Peso: 58 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Venezuela -- Idiomas:</t>
+          <t>Edad: 32 años -- Cabello: Rubio -- Ojos: Cafe Oscuro -- Estatura: 1.63 m -- Medidas: 96 - 73 -108 cm -- Peso: 60 kg -- Busto: grande -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>(984) 1910-894</t>
+          <t>(55) 4076-9675</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>52 (984) 1910-894</t>
+          <t>52 (55) 4076-9675</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=529841910894&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525540769675&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDcxNA==</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDMwOTk=</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1679,34 +1679,34 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Loren</t>
+          <t>Luana albuquerque</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Edad: 22 años -- Cabello: Castaño Claro -- Ojos: Miel -- Estatura: 1.69 m -- Medidas: 80 - 60 - 90 cm -- Peso: 49 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
+          <t>Edad: 32 años -- Cabello: Castaño Claro -- Ojos: Cafe Claro -- Estatura: 1.66 m -- Medidas: 90 - 65 - 95 cm -- Peso: 66 kg -- Busto: grande -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>(55) 4295-6160</t>
+          <t>(55) 2748-2329</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>52 (55) 4295-6160</t>
+          <t>52 (55) 2748-2329</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525542956160&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525527482329&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5MzY=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4NzY=</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1728,34 +1728,34 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Carolay munoz</t>
+          <t>Mara</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Edad: 21 años -- Cabello: Negro -- Ojos: Cafe Oscuro -- Estatura: 1.68 m -- Medidas: 80 - 60 - 93 cm -- Peso: 58 kg -- Busto: pequeño -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
+          <t>Edad: 32 años -- Cabello: Castaño Oscuro -- Ojos: Cafe Oscuro -- Estatura: 1.67 m -- Medidas: 98 - 62 - 98 cm -- Peso: 56 kg -- Busto: grande -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>(55) 6238-5385</t>
+          <t>(998) 5784-819</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>52 (55) 6238-5385</t>
+          <t>52 (998) 5784-819</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525562385385&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=529985784819&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5MTg=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM2NjI=</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1777,34 +1777,34 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Yessica</t>
+          <t>Melanie zapata</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Edad: 25 años -- Cabello: Rubio -- Ojos: Miel -- Estatura: 1.65 m -- Medidas: 90-60-90 cm -- Peso: 52 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Paraguay -- Idiomas:</t>
+          <t>Edad: 21 años -- Cabello: Negro -- Ojos: Cafe Oscuro -- Estatura: 1.69 m -- Medidas: 87 - 57 - 90 cm -- Peso: 55 kg -- Busto: pequeño -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>(55) 2847-1608</t>
+          <t>(55) 6407-1104</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>52 (55) 2847-1608</t>
+          <t>52 (55) 6407-1104</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525528471608&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525564071104&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDI0MzI=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4NjI=</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -1826,34 +1826,34 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Yara valentin</t>
+          <t>Jessica alva</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Edad: 24 años -- Cabello: Rubio -- Ojos: Cafe Oscuro -- Estatura: 1.58 m -- Medidas: 91 -62 - 91 cm -- Peso: 57 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
+          <t>Edad: 30 años -- Cabello: Castaño Oscuro -- Ojos: Cafe Oscuro -- Estatura: 1.65 m -- Medidas: 90 - 70 - 90 cm -- Peso: 55 kg -- Busto: grande -- Cuerpo: Atletica -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>(55) 3416-1585</t>
+          <t>(55) 7517-5293</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>52 (55) 3416-1585</t>
+          <t>52 (55) 7517-5293</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525534161585&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525575175293&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4ODk=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4OTM=</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -1875,34 +1875,34 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Valentina</t>
+          <t>Mia cortez</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Edad: 24 años -- Cabello: Rubio -- Ojos: Azul -- Estatura: 1.62 m -- Medidas: 84 - 62 - 95 cm -- Peso: 46 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
+          <t>Edad: 21 años -- Cabello: Negro -- Ojos: Cafe Oscuro -- Estatura: 1.63 m -- Medidas: 87 - 59 - 94 cm -- Peso: 58 kg -- Busto: pequeño -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>(55) 5218-7269</t>
+          <t>(55) 7140-3953</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>52 (55) 5218-7269</t>
+          <t>52 (55) 7140-3953</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525552187269&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525571403953&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDI4NDM=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4OTY=</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -1924,34 +1924,34 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Barbie</t>
+          <t>Sofia perez</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Edad: 26 años -- Cabello: Rubio -- Ojos: Verdes -- Estatura: 1.67 m -- Medidas: 90 - 63 - 96 cm -- Peso: 55 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: N / A -- Idiomas:</t>
+          <t>Edad: 21 años -- Cabello: Castaño Oscuro -- Ojos: Cafe Oscuro -- Estatura: 1.65 m -- Medidas: 89 - 60 - 92 cm -- Peso: 58 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>(55) 9169-2030</t>
+          <t>(55) 6238-2068</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>52 (55) 9169-2030</t>
+          <t>52 (55) 6238-2068</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525591692030&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525562382068&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDMyMzc=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5MTc=</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -1973,34 +1973,34 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Sofia martinelli</t>
+          <t>Tamara leal</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Edad: 30 años -- Cabello: Rubio -- Ojos: Cafe Oscuro -- Estatura: 1.60 m -- Medidas: 110 - 65 - 120 cm -- Peso: 57 kg -- Busto: muy grande -- Cuerpo: Voluptuosa -- Etnicidad: Latina / Hispana -- Nacionalidad: Argentina -- Idiomas:</t>
+          <t>Edad: 22 años -- Cabello: Rubio -- Ojos: Cafe Oscuro -- Estatura: 1.68 m -- Medidas: 95 - 59 - 98 cm -- Peso: 58 kg -- Busto: natural -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>(55) 4017-6356</t>
+          <t>(55) 7076-4162</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>52 (55) 4017-6356</t>
+          <t>52 (55) 7076-4162</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525540176356&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525570764162&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5MzU=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4NTc=</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2022,34 +2022,34 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Monserrat saenz</t>
+          <t>Gabriela johnson</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Edad: 24 años -- Cabello: Castaño Claro -- Ojos: Miel -- Estatura: 1.70 m -- Medidas: 93 - 63 - 93 cm -- Peso: 56 kg -- Busto: natural -- Cuerpo: Todo Natural -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
+          <t>Edad: 25 años -- Cabello: Rubio -- Ojos: Cafe Oscuro -- Estatura: 1.63 m -- Medidas: 86 - 63 - 95 cm -- Peso: 59 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>(55) 7346-3182</t>
+          <t>(55) 7166-2356</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>52 (55) 7346-3182</t>
+          <t>52 (55) 7166-2356</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525573463182&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525571662356&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDMxMTM=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4OTA=</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2071,34 +2071,34 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Iza aguiar</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Edad: 26 años -- Cabello: Rubio -- Ojos: Verdes -- Estatura: 1.64 m -- Medidas: 92 - 66 - 102 cm -- Peso: 58 kg -- Busto: grande -- Cuerpo: Atletica -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
+          <t>Edad: 27 años -- Cabello: Rubio -- Ojos: Miel -- Estatura: 1.70 m -- Medidas: 90-60-95 cm -- Peso: 65 kg -- Busto: grande -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>(55) 4536-3227</t>
+          <t>(55) 7449-8090</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>52 (55) 4536-3227</t>
+          <t>52 (55) 7449-8090</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525545363227&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525574498090&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5MzM=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM2NDY=</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2120,34 +2120,34 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Isabella guzman</t>
+          <t>Azul jimenez</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Edad: 23 años -- Cabello: Negro -- Ojos: Cafe Oscuro -- Estatura: 1.64 m -- Medidas: 80 - 60 -115 cm -- Peso: 58 kg -- Busto: natural -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
+          <t>Edad: 21 años -- Cabello: Castaño Oscuro -- Ojos: Cafe Claro -- Estatura: 1.65 m -- Medidas: 34-60-80 cm -- Peso: 60 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>(55) 6238-1936</t>
+          <t>(998) 3419-733</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>52 (55) 6238-1936</t>
+          <t>52 (998) 3419-733</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525562381936&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=529983419733&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4ODA=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM3NjU=</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2169,34 +2169,34 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Mia ivanova</t>
+          <t>Tami</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Edad: 24 años -- Cabello: Castaño Oscuro -- Ojos: Grises -- Estatura: 1.70 m -- Medidas: 90 - 60 - 110 cm -- Peso: 59 kg -- Busto: grande -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
+          <t>Edad: 24 años -- Cabello: Castaño Oscuro -- Ojos: Cafe Oscuro -- Estatura: 1.85 m -- Medidas: 75 - 65 - 90 cm -- Peso: 65 kg -- Busto: pequeño -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>(55) 4816-3596</t>
+          <t>(740) 1173-179</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>52 (55) 4816-3596</t>
+          <t>44 (740) 1173-179</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525548163596&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=447401173179&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5MzI=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5MDU=</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2218,34 +2218,34 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Luana albuquerque</t>
+          <t>Sofia rodriguez</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Edad: 32 años -- Cabello: Castaño Claro -- Ojos: Cafe Claro -- Estatura: 1.66 m -- Medidas: 90 - 65 - 95 cm -- Peso: 66 kg -- Busto: grande -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
+          <t>Edad: 22 años -- Cabello: Negro -- Ojos: Cafe Oscuro -- Estatura: 1.70 m -- Medidas: 93 - 63 - 99 cm -- Peso: 64 kg -- Busto: grande -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>(55) 2748-2329</t>
+          <t>(55) 4563-9928</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>52 (55) 2748-2329</t>
+          <t>52 (55) 4563-9928</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525527482329&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525545639928&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4NzY=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4OTU=</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2267,34 +2267,34 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Mia cortez</t>
+          <t>Sofia martinelli</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Edad: 21 años -- Cabello: Negro -- Ojos: Cafe Oscuro -- Estatura: 1.63 m -- Medidas: 87 - 59 - 94 cm -- Peso: 58 kg -- Busto: pequeño -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
+          <t>Edad: 30 años -- Cabello: Rubio -- Ojos: Cafe Oscuro -- Estatura: 1.60 m -- Medidas: 110 - 65 - 120 cm -- Peso: 57 kg -- Busto: muy grande -- Cuerpo: Voluptuosa -- Etnicidad: Latina / Hispana -- Nacionalidad: Argentina -- Idiomas:</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>(55) 7140-3953</t>
+          <t>(55) 4017-6356</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>52 (55) 7140-3953</t>
+          <t>52 (55) 4017-6356</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525571403953&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525540176356&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4OTY=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5MzU=</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2316,34 +2316,34 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Sofia perez</t>
+          <t>Helena millani</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Edad: 21 años -- Cabello: Castaño Oscuro -- Ojos: Cafe Oscuro -- Estatura: 1.65 m -- Medidas: 89 - 60 - 92 cm -- Peso: 58 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
+          <t>Edad: 24 años -- Cabello: Negro -- Ojos: Verdes -- Estatura: 1.70 m -- Medidas: 94 - 62 - 94 cm -- Peso: 61 kg -- Busto: muy grande -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>(55) 6238-2068</t>
+          <t>(55) 3663-6664</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>52 (55) 6238-2068</t>
+          <t>52 (55) 3663-6664</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525562382068&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525536636664&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5MTc=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM3ODI=</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2365,34 +2365,34 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Alisson garcia</t>
+          <t>Roxana</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Edad: 21 años -- Cabello: Castaño Oscuro -- Ojos: Cafe Oscuro -- Estatura: 1.65 m -- Medidas: 95 - 65 - 110 cm -- Peso: 58 kg -- Busto: grande -- Cuerpo: Atletica -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
+          <t>Edad: 21 años -- Cabello: Rubio -- Ojos: Cafe Claro -- Estatura: 1.75 m -- Medidas: 90 - 60 - 90 cm -- Peso: 69 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>(55) 2385-1034</t>
+          <t>(57314) 3908-771</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>52 (55) 2385-1034</t>
+          <t>57 (314) 3908-771</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525523851034&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=573143908771&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5Mjg=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4MjY=</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2414,34 +2414,34 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Zara lark</t>
+          <t>Celeste roman</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Edad: 22 años -- Cabello: Negro -- Ojos: Cafe Oscuro -- Estatura: 1.64 m -- Medidas: 85 - 65 - 100 cm -- Peso: 62 kg -- Busto: pequeño -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
+          <t>Edad: 25 años -- Cabello: Negro -- Ojos: Cafe Oscuro -- Estatura: 1.57 m -- Medidas: 88 - 60 - 92 cm -- Peso: 55 kg -- Busto: natural -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>(55) 7137-8067</t>
+          <t>(55) 2112-5998</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>52 (55) 7137-8067</t>
+          <t>52 (55) 2112-5998</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525571378067&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525521125998&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4NTg=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM3NTM=</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2463,34 +2463,34 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Mia marena</t>
+          <t>Diana</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Edad: 24 años -- Cabello: Castaño Oscuro -- Ojos: Cafe Oscuro -- Estatura: 1.60 m -- Medidas: 95 - 65 - 100 cm -- Peso: 63 kg -- Busto: natural -- Cuerpo: Atletica -- Etnicidad: Latina / Hispana -- Nacionalidad: Mexico -- Idiomas:</t>
+          <t>Edad: 24 años -- Cabello: Rubio -- Ojos: Verdes -- Estatura: 1.67 m -- Medidas: 96 - 65 - 96 cm -- Peso: 56 kg -- Busto: grande -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>(55) 4104-9502</t>
+          <t>(55) 4796-1978</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>52 (55) 4104-9502</t>
+          <t>52 (55) 4796-1978</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525541049502&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525547961978&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4NTU=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5Mzc=</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2512,34 +2512,34 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Victoria</t>
+          <t>Dany brazil</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Edad: 22 años -- Cabello: Negro -- Ojos: Cafe Oscuro -- Estatura: 1.60 m -- Medidas: 104 - 64 - 110 cm -- Peso: 57 kg -- Busto: natural -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
+          <t>Edad: 26 años -- Cabello: Negro -- Ojos: Cafe Oscuro -- Estatura: 1.64 m -- Medidas: 95-63-104 cm -- Peso: 59 kg -- Busto: muy grande -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>(999) 7652-650</t>
+          <t>(55) 2686-7844</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>52 (999) 7652-650</t>
+          <t>52 (55) 2686-7844</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=529997652650&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525526867844&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4Nzk=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM3NzE=</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -2561,34 +2561,34 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Mara</t>
+          <t>Barbie</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Edad: 32 años -- Cabello: Castaño Oscuro -- Ojos: Cafe Oscuro -- Estatura: 1.67 m -- Medidas: 98 - 62 - 98 cm -- Peso: 56 kg -- Busto: grande -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
+          <t>Edad: 26 años -- Cabello: Rubio -- Ojos: Verdes -- Estatura: 1.67 m -- Medidas: 90 - 63 - 96 cm -- Peso: 55 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: N / A -- Idiomas:</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>(998) 5784-819</t>
+          <t>(55) 9169-2030</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>52 (998) 5784-819</t>
+          <t>52 (55) 9169-2030</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=529985784819&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525591692030&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM2NjI=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDMyMzc=</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2610,34 +2610,34 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Yulie</t>
+          <t>Isabella ferrari</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Edad: 23 años -- Cabello: Castaño Oscuro -- Ojos: Cafe Oscuro -- Estatura: 1.60 m -- Medidas: 85 - 60 - 88 cm -- Peso: 45 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Europea -- Nacionalidad: N / A -- Idiomas:</t>
+          <t>Edad: 24 años -- Cabello: Rubio -- Ojos: Cafe Oscuro -- Estatura: 1.65 m -- Medidas: 90 - 68 - 98 cm -- Peso: 62 kg -- Busto: grande -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>(55) 6482-0403</t>
+          <t>(55) 1193-7364</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>52 (55) 6482-0403</t>
+          <t>52 (55) 1193-7364</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525564820403&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525511937364&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM3NTI=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4NDY=</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2659,34 +2659,34 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Marian</t>
+          <t>Katy</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Edad: 26 años -- Cabello: Rubio -- Ojos: Cafe Oscuro -- Estatura: 1.63 m -- Medidas: 90 - 60 - 110 cm -- Peso: 55 kg -- Busto: grande -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
+          <t>Edad: 21 años -- Cabello: Castaño Claro -- Ojos: Grises -- Estatura: 1.69 m -- Medidas: 89 - 60 - 90 cm -- Peso: 62 kg -- Busto: grande -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>(55) 6179-8730</t>
+          <t>(56) 2170-7082</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>52 (55) 6179-8730</t>
+          <t>52 (56) 2170-7082</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525561798730&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525621707082&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5MTM=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM1MjQ=</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -2708,34 +2708,34 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Sheyla</t>
+          <t>Mia marena</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Edad: 24 años -- Cabello: Rubio -- Ojos: Cafe Oscuro -- Estatura: 1.60 m -- Medidas: 95 - 60 - 92 cm -- Peso: 52 kg -- Busto: grande -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Mexico -- Idiomas:</t>
+          <t>Edad: 24 años -- Cabello: Castaño Oscuro -- Ojos: Cafe Oscuro -- Estatura: 1.60 m -- Medidas: 95 - 65 - 100 cm -- Peso: 63 kg -- Busto: natural -- Cuerpo: Atletica -- Etnicidad: Latina / Hispana -- Nacionalidad: Mexico -- Idiomas:</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>(56) 3229-9445</t>
+          <t>(55) 4104-9502</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>52 (56) 3229-9445</t>
+          <t>52 (55) 4104-9502</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525632299445&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525541049502&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4NTM=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4NTU=</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -2757,34 +2757,34 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Barbara</t>
+          <t>Katherine coso</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Edad: 25 años -- Cabello: Negro -- Ojos: Negros -- Estatura: 1.70 m -- Medidas: 90 - 60 - 90 cm -- Peso: 52 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
+          <t>Edad: 25 años -- Cabello: Rubio -- Ojos: Cafe Oscuro -- Estatura: 1.62 m -- Medidas: 90 - 60 - 92 cm -- Peso: 53 kg -- Busto: grande -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Venezuela -- Idiomas:</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>(55) 2530-2959</t>
+          <t>(55) 1139-4996</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>52 (55) 2530-2959</t>
+          <t>52 (55) 1139-4996</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525525302959&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525511394996&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5MTA=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDIzNzk=</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -2806,34 +2806,34 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Catalina</t>
+          <t>Diana martins</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Edad: 26 años -- Cabello: Castaño Claro -- Ojos: Cafe Oscuro -- Estatura: 1.66 m -- Medidas: 90-60-90 cm -- Peso: 59 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
+          <t>Edad: 27 años -- Cabello: Castaño Oscuro -- Ojos: Negros -- Estatura: 1.71 m -- Medidas: 90 - 60 - 90 cm -- Peso: 58 kg -- Busto: grande -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>(56) 3069-7371</t>
+          <t>(55) 2519-0915</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>52 (56) 3069-7371</t>
+          <t>52 (55) 2519-0915</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525630697371&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525525190915&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM3NTQ=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4MDA=</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -2855,34 +2855,34 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Evelyn salvatore</t>
+          <t>Camila</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Edad: 21 años -- Cabello: Negro -- Ojos: Negros -- Estatura: 1.52 m -- Medidas: 87 - 60 - 97 cm -- Peso: 52 kg -- Busto: natural -- Cuerpo: Pequeña -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
+          <t>Edad: 21 años -- Cabello: Negro -- Ojos: Cafe Claro -- Estatura: 1.64 m -- Medidas: 85 - 60 - 80 cm -- Peso: 50 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Venezuela -- Idiomas:</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>(55) 4310-5013</t>
+          <t>(56) 2742-7221</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>52 (55) 4310-5013</t>
+          <t>52 (56) 2742-7221</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525543105013&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525627427221&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5MTQ=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM3MDE=</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -2904,34 +2904,34 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Melanie zapata</t>
+          <t>Melina</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Edad: 21 años -- Cabello: Negro -- Ojos: Cafe Oscuro -- Estatura: 1.69 m -- Medidas: 87 - 57 - 90 cm -- Peso: 55 kg -- Busto: pequeño -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
+          <t>Edad: 27 años -- Cabello: Rubio -- Ojos: Cafe Oscuro -- Estatura: 1.65 m -- Medidas: 95 - 65 - 104 cm -- Peso: 63 kg -- Busto: grande -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>(55) 6407-1104</t>
+          <t>(998) 2290-122</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>52 (55) 6407-1104</t>
+          <t>52 (998) 2290-122</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525564071104&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=529982290122&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4NjI=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5MjA=</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -2953,34 +2953,34 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Katy</t>
+          <t>Barbara lima</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Edad: 21 años -- Cabello: Castaño Claro -- Ojos: Grises -- Estatura: 1.69 m -- Medidas: 89 - 60 - 90 cm -- Peso: 62 kg -- Busto: grande -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
+          <t>Edad: 24 años -- Cabello: Rubio -- Ojos: Cafe Oscuro -- Estatura: 58 m -- Medidas: 95 - 69 - 105 cm -- Peso: 58 kg -- Busto: grande -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>(56) 2170-7082</t>
+          <t>(55) 6509-4248</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>52 (56) 2170-7082</t>
+          <t>52 (55) 6509-4248</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525621707082&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525565094248&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM1MjQ=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4OTI=</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3002,34 +3002,34 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Victoria brand</t>
+          <t>Yulie</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Edad: 23 años -- Cabello: Negro -- Ojos: Cafe Oscuro -- Estatura: 1.67 m -- Medidas: 90 - 58 - 94 cm -- Peso: 55 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
+          <t>Edad: 23 años -- Cabello: Castaño Oscuro -- Ojos: Cafe Oscuro -- Estatura: 1.60 m -- Medidas: 85 - 60 - 88 cm -- Peso: 45 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Europea -- Nacionalidad: N / A -- Idiomas:</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>(55) 6434-4144</t>
+          <t>(55) 6482-0403</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>52 (55) 6434-4144</t>
+          <t>52 (55) 6482-0403</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525564344144&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525564820403&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5MDk=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM3NTI=</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3051,34 +3051,34 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Tami</t>
+          <t>Valentina</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Edad: 24 años -- Cabello: Castaño Oscuro -- Ojos: Cafe Oscuro -- Estatura: 1.85 m -- Medidas: 75 - 65 - 90 cm -- Peso: 65 kg -- Busto: pequeño -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
+          <t>Edad: 24 años -- Cabello: Rubio -- Ojos: Azul -- Estatura: 1.62 m -- Medidas: 84 - 62 - 95 cm -- Peso: 46 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>(740) 1173-179</t>
+          <t>(55) 5218-7269</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>44 (740) 1173-179</t>
+          <t>52 (55) 5218-7269</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=447401173179&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525552187269&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5MDU=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDI4NDM=</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3100,34 +3100,34 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Milena castro</t>
+          <t>Victoria brand</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Edad: 25 años -- Cabello: Rubio -- Ojos: Cafe Oscuro -- Estatura: 1.64 m -- Medidas: 90 - 60 -90 cm -- Peso: 59 kg -- Busto: grande -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
+          <t>Edad: 23 años -- Cabello: Negro -- Ojos: Cafe Oscuro -- Estatura: 1.67 m -- Medidas: 90 - 58 - 94 cm -- Peso: 55 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>(55) 3409-0313</t>
+          <t>(55) 6434-4144</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>52 (55) 3409-0313</t>
+          <t>52 (55) 6434-4144</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525534090313&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525564344144&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4MDc=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5MDk=</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3149,34 +3149,34 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Coral ferrer</t>
+          <t>Marian</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Edad: 26 años -- Cabello: Negro -- Ojos: Cafe Oscuro -- Estatura: 1.67 m -- Medidas: 98 - 65 - 105 cm -- Peso: 62 kg -- Busto: grande -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Venezuela -- Idiomas:</t>
+          <t>Edad: 26 años -- Cabello: Rubio -- Ojos: Cafe Oscuro -- Estatura: 1.63 m -- Medidas: 90 - 60 - 110 cm -- Peso: 55 kg -- Busto: grande -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>(55) 6207-9326</t>
+          <t>(55) 6179-8730</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>52 (55) 6207-9326</t>
+          <t>52 (55) 6179-8730</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525562079326&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525561798730&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4MTk=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5MTM=</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3198,34 +3198,34 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Pamela...</t>
+          <t>Gabi lopez</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Edad: 23 años -- Cabello: Rubio -- Ojos: Cafe Oscuro -- Estatura: 1.61 m -- Medidas: 93 - 63 - 95 cm -- Peso: 52 kg -- Busto: muy grande -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
+          <t>Edad: 21 años -- Cabello: Pelirrojo -- Ojos: Cafe Oscuro -- Estatura: 1.65 m -- Medidas: 89 - 60 - 92 cm -- Peso: 56 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>(55) 5181-3687</t>
+          <t>(55) 6020-7508</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>52 (55) 5181-3687</t>
+          <t>52 (55) 6020-7508</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525551813687&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525560207508&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDIxMjM=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4NTY=</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3247,34 +3247,34 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Sofia galindo</t>
+          <t>Michell garcia</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Edad: 24 años -- Cabello: Castaño Claro -- Ojos: Cafe Oscuro -- Estatura: 1.66 m -- Medidas: 90- 60 - 90 cm -- Peso: 57 kg -- Busto: grande -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
+          <t>Edad: 21 años -- Cabello: Negro -- Ojos: Cafe Oscuro -- Estatura: 1.77 m -- Medidas: 90 -50 - 90 cm -- Peso: 60 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>(55) 7429-4058</t>
+          <t>(55) 1924-5494</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>52 (55) 7429-4058</t>
+          <t>52 (55) 1924-5494</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525574294058&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525519245494&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4NDU=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5MjM=</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3345,34 +3345,34 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Paola martinez</t>
+          <t>Isabella rincon</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Edad: 24 años -- Cabello: Negro -- Ojos: Cafe Oscuro -- Estatura: 1.68 m -- Medidas: 93 - 65 - 98 cm -- Peso: 62 kg -- Busto: grande -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
+          <t>Edad: 21 años -- Cabello: Negro -- Ojos: Negros -- Estatura: 1.61 m -- Medidas: 85 - 55 - 90 cm -- Peso: 51 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>(55) 1758-4659</t>
+          <t>(55) 7347-9548</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>52 (55) 1758-4659</t>
+          <t>52 (55) 7347-9548</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525517584659&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525573479548&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4OTE=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4NjM=</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3394,34 +3394,34 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Sofia</t>
+          <t>Amanda fiuza</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Edad: 25 años -- Cabello: Negro -- Ojos: Cafe Oscuro -- Estatura: 1.60 m -- Medidas: 88 - 63 - 95 cm -- Peso: 55 kg -- Busto: natural -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
+          <t>Edad: 25 años -- Cabello: Negro -- Ojos: Cafe Claro -- Estatura: 1.63 m -- Medidas: 95 - 75 - 100 cm -- Peso: 60 kg -- Busto: grande -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>(55) 4222-2373</t>
+          <t>(55) 2529-5627</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>52 (55) 4222-2373</t>
+          <t>52 (55) 2529-5627</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525542222373&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525525295627&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4ODc=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5MTI=</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -3443,34 +3443,34 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Kamila braum</t>
+          <t>Sofia</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Edad: 28 años -- Cabello: Negro -- Ojos: Negros -- Estatura: 1.72 m -- Medidas: 96 - 64 - 120 cm -- Peso: 65 kg -- Busto: natural -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
+          <t>Edad: 24 años -- Cabello: Castaño Oscuro -- Ojos: Cafe Oscuro -- Estatura: 1.68 m -- Medidas: 93 - 68 - 92 cm -- Peso: 62 kg -- Busto: grande -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Mexico -- Idiomas:</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>(55) 2753-7310</t>
+          <t>(55) 1053-9962</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>52 (55) 2753-7310</t>
+          <t>52 (55) 1053-9962</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525527537310&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525510539962&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM1ODk=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDMxNTY=</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3492,34 +3492,34 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Roxana</t>
+          <t>Alexa</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Edad: 21 años -- Cabello: Rubio -- Ojos: Cafe Claro -- Estatura: 1.75 m -- Medidas: 90 - 60 - 90 cm -- Peso: 69 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
+          <t>Edad: 22 años -- Cabello: Rubio -- Ojos: Negros -- Estatura: 1.67 m -- Medidas: 88 - 66 - 80 cm -- Peso: 53 kg -- Busto: natural -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>(57314) 3908-771</t>
+          <t>(55) 2944-1754</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>57 (314) 3908-771</t>
+          <t>52 (55) 2944-1754</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=573143908771&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525529441754&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4MjY=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5MDM=</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -3541,34 +3541,34 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Natasha</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Edad: 22 años -- Cabello: Castaño Oscuro -- Ojos: Cafe Oscuro -- Estatura: 1.60 m -- Medidas: 87 - 65 - 87 cm -- Peso: 48 kg -- Busto: natural -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Venezuela -- Idiomas:</t>
+          <t>Edad: 26 años -- Cabello: Rubio -- Ojos: Cafe Claro -- Estatura: 1.70 m -- Medidas: 90-60-97 cm -- Peso: 65 kg -- Busto: pequeño -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>(55) 6509-7358</t>
+          <t>(55) 2116-5258</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>52 (55) 6509-7358</t>
+          <t>52 (55) 2116-5258</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525565097358&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525521165258&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4NzE=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM3Njk=</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -3590,34 +3590,34 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Juanita bustamante</t>
+          <t>Isabella</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Edad: 21 años -- Cabello: Negro -- Ojos: Cafe Oscuro -- Estatura: 1.60 m -- Medidas: 87 - 56 - 97 cm -- Peso: 55 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
+          <t>Edad: 25 años -- Cabello: Rubio -- Ojos: Grises -- Estatura: 1.70 m -- Medidas: 90 - 60 -100 cm -- Peso: 55 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Argentina -- Idiomas:</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>(55) 6564-3732</t>
+          <t>(55) 2694-4351</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>52 (55) 6564-3732</t>
+          <t>52 (55) 2694-4351</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525565643732&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525526944351&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4NjU=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4NTI=</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -3639,34 +3639,34 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Miranda</t>
+          <t>Gabriela araujo</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Edad: 25 años -- Cabello: Rubio -- Ojos: Verdes -- Estatura: 1.70 m -- Medidas: 85 - 60 - 89 cm -- Peso: 52 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: N / A -- Idiomas:</t>
+          <t>Edad: 23 años -- Cabello: Rubio -- Ojos: Cafe Oscuro -- Estatura: m -- Medidas: 90 - 60 - 97 cm -- Peso: 66 kg -- Busto: grande -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>(55) 5155-6021</t>
+          <t>(55) 2921-5037</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>52 (55) 5155-6021</t>
+          <t>52 (55) 2921-5037</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525551556021&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525529215037&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5MzA=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4NTQ=</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -3688,34 +3688,34 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Leticia prado</t>
+          <t>Sofia galindo</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Edad: 23 años -- Cabello: Castaño Oscuro -- Ojos: Cafe Oscuro -- Estatura: 1.65 m -- Medidas: 89 - 69 - 95 cm -- Peso: 58 kg -- Busto: grande -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
+          <t>Edad: 24 años -- Cabello: Castaño Claro -- Ojos: Cafe Oscuro -- Estatura: 1.66 m -- Medidas: 90- 60 - 90 cm -- Peso: 57 kg -- Busto: grande -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>(55) 4129-9331</t>
+          <t>(55) 7429-4058</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>52 (55) 4129-9331</t>
+          <t>52 (55) 7429-4058</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525541299331&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525574294058&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4MTA=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4NDU=</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -3737,34 +3737,34 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Diana martins</t>
+          <t>Sheyla</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Edad: 27 años -- Cabello: Castaño Oscuro -- Ojos: Negros -- Estatura: 1.71 m -- Medidas: 90 - 60 - 90 cm -- Peso: 58 kg -- Busto: grande -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
+          <t>Edad: 24 años -- Cabello: Rubio -- Ojos: Cafe Oscuro -- Estatura: 1.60 m -- Medidas: 95 - 60 - 92 cm -- Peso: 52 kg -- Busto: grande -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Mexico -- Idiomas:</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>(55) 2519-0915</t>
+          <t>(56) 3229-9445</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>52 (55) 2519-0915</t>
+          <t>52 (56) 3229-9445</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525525190915&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525632299445&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4MDA=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4NTM=</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -3835,34 +3835,34 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Sofia</t>
+          <t>Carolay munoz</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Edad: 24 años -- Cabello: Castaño Oscuro -- Ojos: Cafe Oscuro -- Estatura: 1.68 m -- Medidas: 93 - 68 - 92 cm -- Peso: 62 kg -- Busto: grande -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Mexico -- Idiomas:</t>
+          <t>Edad: 21 años -- Cabello: Negro -- Ojos: Cafe Oscuro -- Estatura: 1.68 m -- Medidas: 80 - 60 - 93 cm -- Peso: 58 kg -- Busto: pequeño -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>(55) 1053-9962</t>
+          <t>(55) 6238-5385</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>52 (55) 1053-9962</t>
+          <t>52 (55) 6238-5385</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525510539962&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525562385385&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDMxNTY=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5MTg=</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -3884,34 +3884,34 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Gabriela araujo</t>
+          <t>Zara lark</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Edad: 23 años -- Cabello: Rubio -- Ojos: Cafe Oscuro -- Estatura: m -- Medidas: 90 - 60 - 97 cm -- Peso: 66 kg -- Busto: grande -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
+          <t>Edad: 22 años -- Cabello: Negro -- Ojos: Cafe Oscuro -- Estatura: 1.64 m -- Medidas: 85 - 65 - 100 cm -- Peso: 62 kg -- Busto: pequeño -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>(55) 2921-5037</t>
+          <t>(55) 7137-8067</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>52 (55) 2921-5037</t>
+          <t>52 (55) 7137-8067</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525529215037&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525571378067&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4NTQ=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4NTg=</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -3933,34 +3933,34 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Alexa</t>
+          <t>Milena castro</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Edad: 22 años -- Cabello: Rubio -- Ojos: Negros -- Estatura: 1.67 m -- Medidas: 88 - 66 - 80 cm -- Peso: 53 kg -- Busto: natural -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
+          <t>Edad: 25 años -- Cabello: Rubio -- Ojos: Cafe Oscuro -- Estatura: 1.64 m -- Medidas: 90 - 60 -90 cm -- Peso: 59 kg -- Busto: grande -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>(55) 2944-1754</t>
+          <t>(55) 3409-0313</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>52 (55) 2944-1754</t>
+          <t>52 (55) 3409-0313</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525529441754&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525534090313&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5MDM=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4MDc=</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -3982,34 +3982,34 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Michell garcia</t>
+          <t>Paola martinez</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Edad: 21 años -- Cabello: Negro -- Ojos: Cafe Oscuro -- Estatura: 1.77 m -- Medidas: 90 -50 - 90 cm -- Peso: 60 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
+          <t>Edad: 24 años -- Cabello: Negro -- Ojos: Cafe Oscuro -- Estatura: 1.68 m -- Medidas: 93 - 65 - 98 cm -- Peso: 62 kg -- Busto: grande -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>(55) 1924-5494</t>
+          <t>(55) 1758-4659</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>52 (55) 1924-5494</t>
+          <t>52 (55) 1758-4659</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525519245494&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525517584659&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5MjM=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4OTE=</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -4031,34 +4031,34 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Isabella rincon</t>
+          <t>Isabella guzman</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Edad: 21 años -- Cabello: Negro -- Ojos: Negros -- Estatura: 1.61 m -- Medidas: 85 - 55 - 90 cm -- Peso: 51 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
+          <t>Edad: 23 años -- Cabello: Negro -- Ojos: Cafe Oscuro -- Estatura: 1.64 m -- Medidas: 80 - 60 -115 cm -- Peso: 58 kg -- Busto: natural -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>(55) 7347-9548</t>
+          <t>(55) 6238-1936</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>52 (55) 7347-9548</t>
+          <t>52 (55) 6238-1936</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525573479548&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525562381936&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4NjM=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4ODA=</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4080,34 +4080,34 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Barbara lima</t>
+          <t>Giorgina restrepo</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Edad: 24 años -- Cabello: Rubio -- Ojos: Cafe Oscuro -- Estatura: 58 m -- Medidas: 95 - 69 - 105 cm -- Peso: 58 kg -- Busto: grande -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
+          <t>Edad: 22 años -- Cabello: Negro -- Ojos: Verdes -- Estatura: 1.68 m -- Medidas: 89 - 90 - 98 cm -- Peso: 64 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>(55) 6509-4248</t>
+          <t>(55) 7397-2512</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>52 (55) 6509-4248</t>
+          <t>52 (55) 7397-2512</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525565094248&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525573972512&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4OTI=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM3OTg=</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -4129,34 +4129,34 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Lauren rivera</t>
+          <t>Loren</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Edad: 21 años -- Cabello: Negro -- Ojos: Cafe Oscuro -- Estatura: 1.60 m -- Medidas: 75 - 60 - 90 cm -- Peso: 56 kg -- Busto: natural -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
+          <t>Edad: 22 años -- Cabello: Castaño Claro -- Ojos: Miel -- Estatura: 1.69 m -- Medidas: 80 - 60 - 90 cm -- Peso: 49 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>(55) 7398-9179</t>
+          <t>(55) 4295-6160</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>52 (55) 7398-9179</t>
+          <t>52 (55) 4295-6160</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525573989179&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525542956160&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4OTQ=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5MzY=</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -4178,34 +4178,34 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Camila</t>
+          <t>Anahi cortes</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Edad: 21 años -- Cabello: Negro -- Ojos: Cafe Claro -- Estatura: 1.64 m -- Medidas: 85 - 60 - 80 cm -- Peso: 50 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Venezuela -- Idiomas:</t>
+          <t>Edad: 21 años -- Cabello: Negro -- Ojos: Negros -- Estatura: 1.58 m -- Medidas: 87-59-94 cm -- Peso: 54 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: N / A -- Idiomas:</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>(56) 2742-7221</t>
+          <t>(55) 1502-6780</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>52 (56) 2742-7221</t>
+          <t>52 (55) 1502-6780</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525627427221&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525515026780&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM3MDE=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM3NTY=</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -4227,34 +4227,34 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Sofia rodriguez</t>
+          <t>Mia ivanova</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Edad: 22 años -- Cabello: Negro -- Ojos: Cafe Oscuro -- Estatura: 1.70 m -- Medidas: 93 - 63 - 99 cm -- Peso: 64 kg -- Busto: grande -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
+          <t>Edad: 24 años -- Cabello: Castaño Oscuro -- Ojos: Grises -- Estatura: 1.70 m -- Medidas: 90 - 60 - 110 cm -- Peso: 59 kg -- Busto: grande -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>(55) 4563-9928</t>
+          <t>(55) 4816-3596</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>52 (55) 4563-9928</t>
+          <t>52 (55) 4816-3596</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525545639928&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525548163596&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4OTU=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5MzI=</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -4276,34 +4276,34 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Victoria mejia</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Edad: 26 años -- Cabello: Rubio -- Ojos: Cafe Claro -- Estatura: 1.70 m -- Medidas: 90-60-97 cm -- Peso: 65 kg -- Busto: pequeño -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
+          <t>Edad: 22 años -- Cabello: Rubio -- Ojos: Cafe Oscuro -- Estatura: 1.64 m -- Medidas: 91 - 60 - 93 cm -- Peso: 58 kg -- Busto: natural -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>(55) 2116-5258</t>
+          <t>(55) 4213-8335</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>52 (55) 2116-5258</t>
+          <t>52 (55) 4213-8335</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525521165258&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525542138335&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM3Njk=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4NjE=</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -4325,34 +4325,34 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Lina</t>
+          <t>Yessica</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Edad: 21 años -- Cabello: Castaño Oscuro -- Ojos: Cafe Oscuro -- Estatura: 1.60 m -- Medidas: 90 - 60 -110 cm -- Peso: 53 kg -- Busto: grande -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
+          <t>Edad: 25 años -- Cabello: Rubio -- Ojos: Miel -- Estatura: 1.65 m -- Medidas: 90-60-90 cm -- Peso: 52 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Paraguay -- Idiomas:</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>(998) 4822-502</t>
+          <t>(55) 2847-1608</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>52 (998) 4822-502</t>
+          <t>52 (55) 2847-1608</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=529984822502&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525528471608&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4NDQ=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDI0MzI=</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -4374,34 +4374,34 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Luiza brasileña</t>
+          <t>Yara valentin</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Edad: 26 años -- Cabello: Rubio -- Ojos: Cafe Claro -- Estatura: 1.64 m -- Medidas: 93 - 64 - 93 cm -- Peso: 65 kg -- Busto: grande -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
+          <t>Edad: 24 años -- Cabello: Rubio -- Ojos: Cafe Oscuro -- Estatura: 1.58 m -- Medidas: 91 -62 - 91 cm -- Peso: 57 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>(998) 8108-041</t>
+          <t>(55) 3416-1585</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>52 (998) 8108-041</t>
+          <t>52 (55) 3416-1585</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=529988108041&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525534161585&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5MjI=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4ODk=</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -4423,34 +4423,34 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Giorgina restrepo</t>
+          <t>Catalina</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Edad: 22 años -- Cabello: Negro -- Ojos: Verdes -- Estatura: 1.68 m -- Medidas: 89 - 90 - 98 cm -- Peso: 64 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
+          <t>Edad: 26 años -- Cabello: Castaño Claro -- Ojos: Cafe Oscuro -- Estatura: 1.66 m -- Medidas: 90-60-90 cm -- Peso: 59 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>(55) 7397-2512</t>
+          <t>(56) 3069-7371</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>52 (55) 7397-2512</t>
+          <t>52 (56) 3069-7371</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525573972512&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525630697371&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM3OTg=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM3NTQ=</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -4472,34 +4472,34 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Katherine coso</t>
+          <t>Coral ferrer</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Edad: 25 años -- Cabello: Rubio -- Ojos: Cafe Oscuro -- Estatura: 1.62 m -- Medidas: 90 - 60 - 92 cm -- Peso: 53 kg -- Busto: grande -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Venezuela -- Idiomas:</t>
+          <t>Edad: 26 años -- Cabello: Negro -- Ojos: Cafe Oscuro -- Estatura: 1.67 m -- Medidas: 98 - 65 - 105 cm -- Peso: 62 kg -- Busto: grande -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Venezuela -- Idiomas:</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>(55) 1139-4996</t>
+          <t>(55) 6207-9326</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>52 (55) 1139-4996</t>
+          <t>52 (55) 6207-9326</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525511394996&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525562079326&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDIzNzk=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4MTk=</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -4521,34 +4521,34 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Melina</t>
+          <t>Leticia prado</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Edad: 27 años -- Cabello: Rubio -- Ojos: Cafe Oscuro -- Estatura: 1.65 m -- Medidas: 95 - 65 - 104 cm -- Peso: 63 kg -- Busto: grande -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
+          <t>Edad: 23 años -- Cabello: Castaño Oscuro -- Ojos: Cafe Oscuro -- Estatura: 1.65 m -- Medidas: 89 - 69 - 95 cm -- Peso: 58 kg -- Busto: grande -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>(998) 2290-122</t>
+          <t>(55) 4129-9331</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>52 (998) 2290-122</t>
+          <t>52 (55) 4129-9331</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=529982290122&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525541299331&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5MjA=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4MTA=</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -4570,34 +4570,34 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Gabi lopez</t>
+          <t>Renata mora</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Edad: 21 años -- Cabello: Pelirrojo -- Ojos: Cafe Oscuro -- Estatura: 1.65 m -- Medidas: 89 - 60 - 92 cm -- Peso: 56 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
+          <t>Edad: 25 años -- Cabello: Pelirrojo -- Ojos: Cafe Claro -- Estatura: 1.65 m -- Medidas: 98-70-107 cm -- Peso: 62 kg -- Busto: grande -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>(55) 6020-7508</t>
+          <t>(55) 4179-0645</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>52 (55) 6020-7508</t>
+          <t>52 (55) 4179-0645</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525560207508&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525541790645&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4NTY=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM3NTk=</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -4619,34 +4619,34 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Victoria mejia</t>
+          <t>Gisele</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Edad: 22 años -- Cabello: Rubio -- Ojos: Cafe Oscuro -- Estatura: 1.64 m -- Medidas: 91 - 60 - 93 cm -- Peso: 58 kg -- Busto: natural -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
+          <t>Edad: 27 años -- Cabello: Castaño Oscuro -- Ojos: Cafe Oscuro -- Estatura: 1.60 m -- Medidas: 92 - 70 - 99 cm -- Peso: 53 kg -- Busto: natural -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>(55) 4213-8335</t>
+          <t>(55) 2530-2879</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>52 (55) 4213-8335</t>
+          <t>52 (55) 2530-2879</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525542138335&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525525302879&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4NjE=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5MTE=</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -4668,34 +4668,34 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Dany brazil</t>
+          <t>Victoria</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Edad: 26 años -- Cabello: Negro -- Ojos: Cafe Oscuro -- Estatura: 1.64 m -- Medidas: 95-63-104 cm -- Peso: 59 kg -- Busto: muy grande -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
+          <t>Edad: 22 años -- Cabello: Negro -- Ojos: Cafe Oscuro -- Estatura: 1.60 m -- Medidas: 104 - 64 - 110 cm -- Peso: 57 kg -- Busto: natural -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>(55) 2686-7844</t>
+          <t>(999) 7652-650</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>52 (55) 2686-7844</t>
+          <t>52 (999) 7652-650</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525526867844&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=529997652650&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM3NzE=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4Nzk=</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -4717,34 +4717,34 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Mila</t>
+          <t>Lina</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Edad: 28 años -- Cabello: Rubio -- Ojos: Cafe Claro -- Estatura: 1.68 m -- Medidas: 84 -62 - 90 cm -- Peso: 54 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
+          <t>Edad: 21 años -- Cabello: Castaño Oscuro -- Ojos: Cafe Oscuro -- Estatura: 1.60 m -- Medidas: 90 - 60 -110 cm -- Peso: 53 kg -- Busto: grande -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>(55) 7324-5665</t>
+          <t>(998) 4822-502</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>52 (55) 7324-5665</t>
+          <t>52 (998) 4822-502</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525573245665&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=529984822502&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4MzY=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4NDQ=</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -4766,34 +4766,34 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Azul jimenez</t>
+          <t>Luiza brasileña</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Edad: 21 años -- Cabello: Castaño Oscuro -- Ojos: Cafe Claro -- Estatura: 1.65 m -- Medidas: 34-60-80 cm -- Peso: 60 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
+          <t>Edad: 26 años -- Cabello: Rubio -- Ojos: Cafe Claro -- Estatura: 1.64 m -- Medidas: 93 - 64 - 93 cm -- Peso: 65 kg -- Busto: grande -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>(998) 3419-733</t>
+          <t>(998) 8108-041</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>52 (998) 3419-733</t>
+          <t>52 (998) 8108-041</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=529983419733&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=529988108041&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM3NjU=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5MjI=</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -4815,34 +4815,34 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Jess bittencourt</t>
+          <t>Sasha</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Edad: 23 años -- Cabello: Rubio -- Ojos: Cafe Oscuro -- Estatura: 1.62 m -- Medidas: 90 - 62 - 102 cm -- Peso: 55 kg -- Busto: grande -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
+          <t>Edad: 23 años -- Cabello: Castaño Oscuro -- Ojos: Miel -- Estatura: 1.58 m -- Medidas: 88 - 60 - 90 cm -- Peso: 50 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: N / A -- Idiomas:</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>(55) 2150-2712</t>
+          <t>(55) 6071-5135</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>52 (55) 2150-2712</t>
+          <t>52 (55) 6071-5135</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525521502712&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525560715135&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4OTc=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5MDc=</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -4864,34 +4864,34 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Isabella ferrari</t>
+          <t>Natasha</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Edad: 24 años -- Cabello: Rubio -- Ojos: Cafe Oscuro -- Estatura: 1.65 m -- Medidas: 90 - 68 - 98 cm -- Peso: 62 kg -- Busto: grande -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
+          <t>Edad: 22 años -- Cabello: Castaño Oscuro -- Ojos: Cafe Oscuro -- Estatura: 1.60 m -- Medidas: 87 - 65 - 87 cm -- Peso: 48 kg -- Busto: natural -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Venezuela -- Idiomas:</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>(55) 1193-7364</t>
+          <t>(55) 6509-7358</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>52 (55) 1193-7364</t>
+          <t>52 (55) 6509-7358</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525511937364&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525565097358&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4NDY=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4NzE=</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -4913,34 +4913,34 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Vanusa freitas</t>
+          <t>Juanita bustamante</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Edad: 24 años -- Cabello: Negro -- Ojos: Cafe Oscuro -- Estatura: 1.65 m -- Medidas: 96 -66 -101 cm -- Peso: 58 kg -- Busto: grande -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
+          <t>Edad: 21 años -- Cabello: Negro -- Ojos: Cafe Oscuro -- Estatura: 1.60 m -- Medidas: 87 - 56 - 97 cm -- Peso: 55 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>(55) 4131-9903</t>
+          <t>(55) 6564-3732</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>52 (55) 4131-9903</t>
+          <t>52 (55) 6564-3732</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525541319903&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525565643732&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDMxOTk=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4NjU=</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -4962,34 +4962,34 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Tamara leal</t>
+          <t>Alejandra</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Edad: 22 años -- Cabello: Rubio -- Ojos: Cafe Oscuro -- Estatura: 1.68 m -- Medidas: 95 - 59 - 98 cm -- Peso: 58 kg -- Busto: natural -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
+          <t>Edad: 29 años -- Cabello: Rubio -- Ojos: Cafe Claro -- Estatura: 1.65 m -- Medidas: 87 - 63 - 92 cm -- Peso: 55 kg -- Busto: grande -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>(55) 7076-4162</t>
+          <t>(55) 7363-5832</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>52 (55) 7076-4162</t>
+          <t>52 (55) 7363-5832</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525570764162&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525573635832&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4NTc=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM2MzE=</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -5011,34 +5011,34 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Amanda fiuza</t>
+          <t>Barbara</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Edad: 25 años -- Cabello: Negro -- Ojos: Cafe Claro -- Estatura: 1.63 m -- Medidas: 95 - 75 - 100 cm -- Peso: 60 kg -- Busto: grande -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
+          <t>Edad: 25 años -- Cabello: Negro -- Ojos: Negros -- Estatura: 1.70 m -- Medidas: 90 - 60 - 90 cm -- Peso: 52 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>(55) 2529-5627</t>
+          <t>(55) 2530-2959</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>52 (55) 2529-5627</t>
+          <t>52 (55) 2530-2959</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525525295627&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525525302959&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5MTI=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5MTA=</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -5060,34 +5060,34 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Helena millani</t>
+          <t>Monserrat saenz</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Edad: 24 años -- Cabello: Negro -- Ojos: Verdes -- Estatura: 1.70 m -- Medidas: 94 - 62 - 94 cm -- Peso: 61 kg -- Busto: muy grande -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
+          <t>Edad: 24 años -- Cabello: Castaño Claro -- Ojos: Miel -- Estatura: 1.70 m -- Medidas: 93 - 63 - 93 cm -- Peso: 56 kg -- Busto: natural -- Cuerpo: Todo Natural -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>(55) 3663-6664</t>
+          <t>(55) 7346-3182</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>52 (55) 3663-6664</t>
+          <t>52 (55) 7346-3182</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525536636664&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525573463182&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM3ODI=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDMxMTM=</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -5109,34 +5109,34 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Dani brasileña</t>
+          <t>Vanusa freitas</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Edad: 32 años -- Cabello: Rubio -- Ojos: Cafe Oscuro -- Estatura: 1.63 m -- Medidas: 96 - 73 -108 cm -- Peso: 60 kg -- Busto: grande -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
+          <t>Edad: 24 años -- Cabello: Negro -- Ojos: Cafe Oscuro -- Estatura: 1.65 m -- Medidas: 96 -66 -101 cm -- Peso: 58 kg -- Busto: grande -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>(55) 4076-9675</t>
+          <t>(55) 4131-9903</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>52 (55) 4076-9675</t>
+          <t>52 (55) 4131-9903</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525540769675&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525541319903&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDMwOTk=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDMxOTk=</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -5158,34 +5158,34 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Isabella</t>
+          <t>Evelyn salvatore</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Edad: 25 años -- Cabello: Rubio -- Ojos: Grises -- Estatura: 1.70 m -- Medidas: 90 - 60 -100 cm -- Peso: 55 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Argentina -- Idiomas:</t>
+          <t>Edad: 21 años -- Cabello: Negro -- Ojos: Negros -- Estatura: 1.52 m -- Medidas: 87 - 60 - 97 cm -- Peso: 52 kg -- Busto: natural -- Cuerpo: Pequeña -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>(55) 2694-4351</t>
+          <t>(55) 4310-5013</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>52 (55) 2694-4351</t>
+          <t>52 (55) 4310-5013</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525526944351&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525543105013&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4NTI=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5MTQ=</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -5207,34 +5207,34 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Anahi cortes</t>
+          <t>Miranda</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Edad: 21 años -- Cabello: Negro -- Ojos: Negros -- Estatura: 1.58 m -- Medidas: 87-59-94 cm -- Peso: 54 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: N / A -- Idiomas:</t>
+          <t>Edad: 25 años -- Cabello: Rubio -- Ojos: Verdes -- Estatura: 1.70 m -- Medidas: 85 - 60 - 89 cm -- Peso: 52 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: N / A -- Idiomas:</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>(55) 1502-6780</t>
+          <t>(55) 5155-6021</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>52 (55) 1502-6780</t>
+          <t>52 (55) 5155-6021</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525515026780&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525551556021&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM3NTY=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5MzA=</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -5295,44 +5295,44 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Cd. México</t>
+          <t>Cancun</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Cd. México</t>
+          <t>Cancun</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Celeste roman</t>
+          <t>Victoria</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Edad: 25 años -- Cabello: Negro -- Ojos: Cafe Oscuro -- Estatura: 1.57 m -- Medidas: 88 - 60 - 92 cm -- Peso: 55 kg -- Busto: natural -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
+          <t>Edad: 27 años -- Cabello: Rubio -- Ojos: Cafe Oscuro -- Estatura: 1.63 m -- Medidas: 95 - 60 - 92 cm -- Peso: 50 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Argentina -- Idiomas:</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>(55) 2112-5998</t>
+          <t>(56) 2044-7852</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>52 (55) 2112-5998</t>
+          <t>52 (56) 2044-7852</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525521125998&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525620447852&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM3NTM=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4ODg=</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -5344,44 +5344,44 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Cd. México</t>
+          <t>Cancun</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Cd. México</t>
+          <t>Cancun</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Sophia</t>
+          <t>Camila rios</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Edad: 27 años -- Cabello: Rubio -- Ojos: Miel -- Estatura: 1.70 m -- Medidas: 90-60-95 cm -- Peso: 65 kg -- Busto: grande -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
+          <t>Edad: 27 años -- Cabello: Rubio -- Ojos: Cafe Oscuro -- Estatura: 1.60 m -- Medidas: 90 - 60 - 90 cm -- Peso: 60 kg -- Busto: grande -- Cuerpo: Atletica -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>(55) 7449-8090</t>
+          <t>(998) 1491-658</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>52 (55) 7449-8090</t>
+          <t>52 (998) 1491-658</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525574498090&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=529981491658&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM2NDY=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4NDk=</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -5393,44 +5393,44 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Cd. México</t>
+          <t>Cancun</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Cd. México</t>
+          <t>Cancun</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Alejandra</t>
+          <t>Amanda vieira</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Edad: 29 años -- Cabello: Rubio -- Ojos: Cafe Claro -- Estatura: 1.65 m -- Medidas: 87 - 63 - 92 cm -- Peso: 55 kg -- Busto: grande -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
+          <t>Edad: 24 años -- Cabello: Rubio -- Ojos: Cafe Oscuro -- Estatura: 1.73 m -- Medidas: 90-60-90 cm -- Peso: 66 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>(55) 7363-5832</t>
+          <t>(609) 4697-60</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>52 (55) 7363-5832</t>
+          <t>33 (609) 4697-60</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525573635832&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=33609469760&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM2MzE=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5MjE=</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -5442,44 +5442,44 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Cd. México</t>
+          <t>Cancun</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Cd. México</t>
+          <t>Cancun</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Sasha</t>
+          <t>Samantha</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Edad: 23 años -- Cabello: Castaño Oscuro -- Ojos: Miel -- Estatura: 1.58 m -- Medidas: 88 - 60 - 90 cm -- Peso: 50 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: N / A -- Idiomas:</t>
+          <t>Edad: 25 años -- Cabello: Negro -- Ojos: Miel -- Estatura: 1.67 m -- Medidas: 90 - 62 - 88 cm -- Peso: 57 kg -- Busto: grande -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>(55) 6071-5135</t>
+          <t>(998) 3411-568</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>52 (55) 6071-5135</t>
+          <t>52 (998) 3411-568</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525560715135&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=529983411568&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5MDc=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5MzE=</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -5491,44 +5491,44 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Cd. México</t>
+          <t>Cancun</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Cd. México</t>
+          <t>Cancun</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Jessica alva</t>
+          <t>Flavia</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Edad: 30 años -- Cabello: Castaño Oscuro -- Ojos: Cafe Oscuro -- Estatura: 1.65 m -- Medidas: 90 - 70 - 90 cm -- Peso: 55 kg -- Busto: grande -- Cuerpo: Atletica -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
+          <t>Edad: 27 años -- Cabello: Castaño Claro -- Ojos: Verdes -- Estatura: 1.65 m -- Medidas: 92 - 63 - 95 cm -- Peso: 55 kg -- Busto: grande -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Paraguay -- Idiomas:</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>(55) 7517-5293</t>
+          <t>(55) 3195-1747</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>52 (55) 7517-5293</t>
+          <t>52 (55) 3195-1747</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525575175293&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525531951747&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4OTM=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4ODM=</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -5540,44 +5540,44 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Cd. México</t>
+          <t>Cuernavaca</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Cd. México</t>
+          <t>Cuernavaca</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Renata mora</t>
+          <t>Lucy</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Edad: 25 años -- Cabello: Pelirrojo -- Ojos: Cafe Claro -- Estatura: 1.65 m -- Medidas: 98-70-107 cm -- Peso: 62 kg -- Busto: grande -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
+          <t>Edad: 33 años -- Cabello: Castaño Oscuro -- Ojos: Verdes -- Estatura: 1.74 m -- Medidas: 90 - 64 - 90 cm -- Peso: 61 kg -- Busto: grande -- Cuerpo: Atletica -- Etnicidad: Latina / Hispana -- Nacionalidad: Argentina -- Idiomas:</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>(55) 4179-0645</t>
+          <t>(55) 8445-1016</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>52 (55) 4179-0645</t>
+          <t>52 (55) 8445-1016</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525541790645&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525584451016&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM3NTk=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4Njg=</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -5589,44 +5589,44 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Cd. México</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Cd. México</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Gisele</t>
+          <t>Julieta</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Edad: 27 años -- Cabello: Castaño Oscuro -- Ojos: Cafe Oscuro -- Estatura: 1.60 m -- Medidas: 92 - 70 - 99 cm -- Peso: 53 kg -- Busto: natural -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
+          <t>Edad: 26 años -- Cabello: Rubio -- Ojos: Cafe Claro -- Estatura: 1.63 m -- Medidas: 93 - 60 - 92 cm -- Peso: 42 kg -- Busto: grande -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Colombia -- Idiomas:</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>(55) 2530-2879</t>
+          <t>(55) 7146-7493</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>52 (55) 2530-2879</t>
+          <t>52 (55) 7146-7493</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525525302879&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=525571467493&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM5MTE=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4NTE=</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -5638,47 +5638,96 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Cd. México</t>
+          <t>Los Cabos</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Cd. México</t>
+          <t>Los Cabos</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Gabriela johnson</t>
+          <t>Kathya.</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Edad: 25 años -- Cabello: Rubio -- Ojos: Cafe Oscuro -- Estatura: 1.63 m -- Medidas: 86 - 63 - 95 cm -- Peso: 59 kg -- Busto: natural -- Cuerpo: Delgada -- Etnicidad: Latina / Hispana -- Nacionalidad: Brasil -- Idiomas:</t>
+          <t>Edad: 35 años -- Cabello: Rubio -- Ojos: Verdes -- Estatura: 1.67 m -- Medidas: 86 - 66 - 90 cm -- Peso: 57 kg -- Busto: grande -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: Uruguay -- Idiomas:</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>(55) 7166-2356</t>
+          <t>(998) 3964-850</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>52 (55) 7166-2356</t>
+          <t>52 (998) 3964-850</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>https://api.whatsapp.com/send?phone=525571662356&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+          <t>https://api.whatsapp.com/send?phone=529983964850&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
         </is>
       </c>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4OTA=</t>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM4NjQ=</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
+        <is>
+          <t>Dessires</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maria angel gomez </t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Edad: 21 años -- Cabello: Castaño Oscuro -- Ojos: Cafe Claro -- Estatura: 1.58 m -- Medidas: 85 - 60 - 90 cm -- Peso: 55 kg -- Busto: natural -- Cuerpo: Curvilinea -- Etnicidad: Latina / Hispana -- Nacionalidad: N / A -- Idiomas:</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>(55) 7410-2693</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>52 (55) 7410-2693</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>https://api.whatsapp.com/send?phone=525574102693&amp;text=Hola.%20Te%20vi%20en%20https://www.dessires.com.%20Me%20puedes%20dar%20informaci%C3%B3n%20de%20tus%20servicios%20y%20disponibilidad.</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>https://www.dessires.com/mx/es/ctrl_clic.php?url=cGVyZmlsfDM2ODg=</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
         <is>
           <t>Dessires</t>
         </is>
